--- a/src/excel-data/kyushu.xlsx
+++ b/src/excel-data/kyushu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{235908E8-E74A-7249-85EA-0BC9B8F5D717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123DA84-24FB-484F-856C-42D25C9452CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>sortOrder</t>
   </si>
@@ -37,18 +37,12 @@
     <t>price_adult_regular</t>
   </si>
   <si>
-    <t>price_adult_advance</t>
-  </si>
-  <si>
     <t>price_adult_phone</t>
   </si>
   <si>
     <t>price_child_regular</t>
   </si>
   <si>
-    <t>price_child_advance</t>
-  </si>
-  <si>
     <t>price_child_phone</t>
   </si>
   <si>
@@ -215,13 +209,25 @@
   </si>
   <si>
     <t>南九州地区, 鹿儿岛宫崎, 热带风光</t>
+  </si>
+  <si>
+    <t>price_over65</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_under15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>price_free</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -234,6 +240,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,13 +268,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,19 +615,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:AA152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W18" sqref="W18"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="22" max="22" width="19.5" customWidth="1"/>
-    <col min="23" max="23" width="22.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="13" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="19.5" customWidth="1"/>
+    <col min="24" max="24" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,465 +657,749 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R2" t="s">
         <v>29</v>
       </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="U2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>34</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>35</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>36</v>
       </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>5</v>
       </c>
-      <c r="Z2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
-      </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N3" t="s">
         <v>43</v>
       </c>
       <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
         <v>29</v>
       </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
         <v>32</v>
       </c>
-      <c r="S3" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" t="s">
         <v>34</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>35</v>
       </c>
-      <c r="V3" t="s">
+      <c r="Y3" t="s">
         <v>36</v>
       </c>
-      <c r="W3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>5</v>
       </c>
-      <c r="Z3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s">
         <v>49</v>
       </c>
       <c r="O4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" t="s">
+        <v>48</v>
+      </c>
+      <c r="U4" t="s">
         <v>32</v>
       </c>
-      <c r="S4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
+        <v>33</v>
+      </c>
+      <c r="W4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>35</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Y4" t="s">
         <v>36</v>
       </c>
-      <c r="W4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5</v>
       </c>
-      <c r="Z4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
         <v>53</v>
       </c>
-      <c r="D5" t="s">
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="W5" t="s">
+        <v>34</v>
+      </c>
+      <c r="X5" t="s">
         <v>55</v>
       </c>
-      <c r="T5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" t="s">
-        <v>56</v>
-      </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
         <v>36</v>
       </c>
-      <c r="W5" t="s">
-        <v>57</v>
-      </c>
-      <c r="X5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>4</v>
       </c>
-      <c r="Z5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>62</v>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
         <v>60</v>
       </c>
-      <c r="D6" t="s">
+      <c r="U6" t="s">
+        <v>32</v>
+      </c>
+      <c r="V6" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" t="s">
         <v>61</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>64</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" t="s">
-        <v>56</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
         <v>36</v>
       </c>
-      <c r="W6" t="s">
-        <v>63</v>
-      </c>
-      <c r="X6" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>3</v>
       </c>
-      <c r="Z6" t="s">
-        <v>29</v>
-      </c>
+      <c r="AA6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="11:13">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="11:13">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="11:13">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="11:13">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="11:13">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="11:13">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="11:13">
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="11:13">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="11:13">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="11:13">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="11:13">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="97" spans="11:13">
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="11:13">
+      <c r="K98">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="99" spans="11:13">
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="11:13">
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="11:13">
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="11:13">
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="11:13">
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="11:13">
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="11:13">
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="11:13">
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="11:13">
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="11:13">
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="11:13">
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="11:13">
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="11:13">
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="11:13">
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="11:13">
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="11:13">
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="11:13">
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="11:13">
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="11:13">
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="11:13">
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="11:13">
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="11:13">
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="11:13">
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="11:13">
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="11:13">
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="11:13">
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="11:13">
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="11:13">
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="11:13">
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="11:13">
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="11:13">
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="11:13">
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="11:13">
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="11:13">
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="11:13">
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="11:13">
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="11:13">
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="11:13">
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="11:13">
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="11:13">
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="11:13">
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="11:13">
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="11:13">
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="11:13">
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="11:13">
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="11:13">
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="11:13">
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="11:13">
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="11:13">
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="11:13">
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="11:13">
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="11:13">
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="11:13">
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="11:13">
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="N1:U6 A1:L6 Z1:Z6 V1:Y6" numberStoredAsText="1"/>
+    <ignoredError sqref="O1:AA6 A1:E6 F1:G6 H1:H6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/src/excel-data/kyushu.xlsx
+++ b/src/excel-data/kyushu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B123DA84-24FB-484F-856C-42D25C9452CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915A9AB-7A9E-1742-A501-40F5BA52E1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="310">
   <si>
     <t>sortOrder</t>
   </si>
@@ -221,13 +221,745 @@
   <si>
     <t>price_free</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JRKyushu-Tabibito-Kyushu-Manzoku</t>
+  </si>
+  <si>
+    <t>旅名人の九州満喫きっぷ</t>
+  </si>
+  <si>
+    <t>九州畅游旅名人通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Tabibito-Kyushu-Manzoku.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Burari-Omura-Line-Kippu</t>
+  </si>
+  <si>
+    <t>ぶらり大村線きっぷ</t>
+  </si>
+  <si>
+    <t>大村线悠闲通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Burari-Omura-Line-Kippu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Yufuin-1Day-Rail-Bus</t>
+  </si>
+  <si>
+    <t>ゆふいん1dayレール＆バスチケット</t>
+  </si>
+  <si>
+    <t>由布院一日铁路&amp;巴士票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Yufuin-1Day-Rail-Bus.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Gurutto-Kyushu-Kippu</t>
+  </si>
+  <si>
+    <t>ぐるっと九州きっぷ</t>
+  </si>
+  <si>
+    <t>九州巡游通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Gurutto-Kyushu-Kippu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Miyako-Bus-Nichinan-1Day-Free-Pass</t>
+  </si>
+  <si>
+    <t>JR＆宮交バス 日南1デーフリーパス</t>
+  </si>
+  <si>
+    <t>JR &amp; 宫交巴士日南一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Miyako-Bus-Nichinan-1Day-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Miyako-Bus-Shopping-Digital-Kippu</t>
+  </si>
+  <si>
+    <t>JR＆宮交バス お買い物デジタルきっぷ</t>
+  </si>
+  <si>
+    <t>JR &amp; 宫交巴士购物数字票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Miyako-Bus-Shopping-Digital-Kippu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Miyako-Bus-Takanabe-Digital-Kippu</t>
+  </si>
+  <si>
+    <t>JR＆宮交バス 高鍋デジタルきっぷ</t>
+  </si>
+  <si>
+    <t>JR &amp; 宫交巴士高锅数字票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Miyako-Bus-Takanabe-Digital-Kippu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Miyako-Bus-Kijo-Digital-Kippu</t>
+  </si>
+  <si>
+    <t>JR＆宮交バス 木城デジタルきっぷ</t>
+  </si>
+  <si>
+    <t>JR &amp; 宫交巴士木城数字票</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Miyako-Bus-Kijo-Digital-Kippu.png</t>
+  </si>
+  <si>
+    <t>MinamiAso-Tabi-Rail-Bus</t>
+  </si>
+  <si>
+    <t>みなみあそ旅のレールバス</t>
+  </si>
+  <si>
+    <t>南阿苏旅的铁路巴士票</t>
+  </si>
+  <si>
+    <t>/images/coverage/MinamiAso-Tabi-Rail-Bus.png</t>
+  </si>
+  <si>
+    <t>Aso-Tabi-Rail-Bus</t>
+  </si>
+  <si>
+    <t>あそ旅のレールバス</t>
+  </si>
+  <si>
+    <t>阿苏旅的铁路巴士票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Aso-Tabi-Rail-Bus.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Hello-Free-Time-Net-Pass-Kyushu</t>
+  </si>
+  <si>
+    <t>ハロー！自由時間ネットパス(全九州版)</t>
+  </si>
+  <si>
+    <t>Hello!自由时间网络通票(全九州版)</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Hello-Free-Time-Net-Pass-Kyushu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Hello-Free-Time-Net-Pass-North-Kyushu</t>
+  </si>
+  <si>
+    <t>ハロー！自由時間ネットパス(北部九州版)</t>
+  </si>
+  <si>
+    <t>Hello!自由时间网络通票(北九州版)</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Hello-Free-Time-Net-Pass-North-Kyushu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Hello-Free-Time-Green-Net-Pass-Kyushu</t>
+  </si>
+  <si>
+    <t>ハロー！自由時間グリーンネットパス(全九州版)</t>
+  </si>
+  <si>
+    <t>Hello!自由时间绿网络通票(全九州版)</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Hello-Free-Time-Green-Net-Pass-Kyushu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-Hello-Free-Time-Green-Net-Pass-North-Kyushu</t>
+  </si>
+  <si>
+    <t>ハロー！自由時間グリーンネットパス(北部九州版)</t>
+  </si>
+  <si>
+    <t>Hello!自由时间绿网络通票(北九州版)</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-Hello-Free-Time-Green-Net-Pass-North-Kyushu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-JQ-Card-Odekake-Net-Pass-Kyushu</t>
+  </si>
+  <si>
+    <t>JQ CARDおでかけネットパス(全九州版)</t>
+  </si>
+  <si>
+    <t>JQ卡外出网络通票(全九州版)</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-JQ-Card-Odekake-Net-Pass-Kyushu.png</t>
+  </si>
+  <si>
+    <t>JRKyushu-JQ-Card-Odekake-Net-Pass-North-Kyushu</t>
+  </si>
+  <si>
+    <t>JQ CARDおでかけネットパス(北部九州版)</t>
+  </si>
+  <si>
+    <t>JQ卡外出网络通票(北九州版)</t>
+  </si>
+  <si>
+    <t>/images/coverage/JRKyushu-JQ-Card-Odekake-Net-Pass-North-Kyushu.png</t>
+  </si>
+  <si>
+    <t>Solaseed-Kagoshima-Miyazaki-Free-Kippu</t>
+  </si>
+  <si>
+    <t>鹿児島・宮崎フリーきっぷ</t>
+  </si>
+  <si>
+    <t>鹿儿岛·宫崎自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Solaseed-Kagoshima-Miyazaki-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Solaseed-Yufuin-Beppu-Free-Kippu</t>
+  </si>
+  <si>
+    <t>由布院・別府フリーきっぷ</t>
+  </si>
+  <si>
+    <t>由布院·别府自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Solaseed-Yufuin-Beppu-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Solaseed-West-Kyushu-Free-Kippu</t>
+  </si>
+  <si>
+    <t>西九州フリーきっぷ</t>
+  </si>
+  <si>
+    <t>西九州自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Solaseed-West-Kyushu-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Solaseed-Central-Kyushu-Free-Kippu</t>
+  </si>
+  <si>
+    <t>中九州フリーきっぷ</t>
+  </si>
+  <si>
+    <t>中九州自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Solaseed-Central-Kyushu-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Solaseed-Whole-Kyushu-Free-Kippu</t>
+  </si>
+  <si>
+    <t>全九州フリーきっぷ</t>
+  </si>
+  <si>
+    <t>全九州自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Solaseed-Whole-Kyushu-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Nishitetsu-Fukuoka-1Day-Pass</t>
+  </si>
+  <si>
+    <t>FUKUOKA 1DAY PASS</t>
+  </si>
+  <si>
+    <t>福冈一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nishitetsu-Fukuoka-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Nishitetsu-Tenjin-Dazaifu-1Day-Free</t>
+  </si>
+  <si>
+    <t>福岡(天神)⇔太宰府1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>福冈(天神)⇔太宰府一日自由乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nishitetsu-Tenjin-Dazaifu-1Day-Free.png</t>
+  </si>
+  <si>
+    <t>Kitakyushu-Express-Railway-1Day</t>
+  </si>
+  <si>
+    <t>１日乗車券</t>
+  </si>
+  <si>
+    <t>北九州高速铁道一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kitakyushu-Express-Railway-1Day.png</t>
+  </si>
+  <si>
+    <t>Chikuhou-Dentetsu-Heichiku-OneDay-Kippu</t>
+  </si>
+  <si>
+    <t>へい！ちくてつ１日フリーきっぷ</t>
+  </si>
+  <si>
+    <t>筑丰电铁一日自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Chikuhou-Dentetsu-Heichiku-OneDay-Kippu.png</t>
+  </si>
+  <si>
+    <t>Chikuhou-Dentetsu-24Hr-Free-Kippu</t>
+  </si>
+  <si>
+    <t>ちくてつ24時間フリーきっぷ</t>
+  </si>
+  <si>
+    <t>筑铁24小时自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Chikuhou-Dentetsu-24Hr-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Fukuoka-City-Transportation-1Day</t>
+  </si>
+  <si>
+    <t>福冈市1日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukuoka-City-Transportation-1Day.png</t>
+  </si>
+  <si>
+    <t>Fukuoka-FamiChika-Kippu</t>
+  </si>
+  <si>
+    <t>ファミちかきっぷ</t>
+  </si>
+  <si>
+    <t>家族亲密通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukuoka-FamiChika-Kippu.png</t>
+  </si>
+  <si>
+    <t>Fukuoka-Family-Pair-Ticket</t>
+  </si>
+  <si>
+    <t>ファミリーペア券</t>
+  </si>
+  <si>
+    <t>家庭两人券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukuoka-Family-Pair-Ticket.png</t>
+  </si>
+  <si>
+    <t>Fukuoka-Children-100yen-Pass</t>
+  </si>
+  <si>
+    <t>小学生100円パス</t>
+  </si>
+  <si>
+    <t>小学生100日元票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Fukuoka-Children-100yen-Pass.png</t>
+  </si>
+  <si>
+    <t>Amagi-Railway-1Day-Free-Kippu</t>
+  </si>
+  <si>
+    <t>甘鉄一日フリー乗車券</t>
+  </si>
+  <si>
+    <t>甘木铁路一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Amagi-Railway-1Day-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Matsuura-Railway-1Day-Pass</t>
+  </si>
+  <si>
+    <t>松浦鉄道１日乗車券</t>
+  </si>
+  <si>
+    <t>松浦铁路一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Matsuura-Railway-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Nishihei-Bus-Sasebo-Bus-Matsuura-Railway-1Day</t>
+  </si>
+  <si>
+    <t>西肥バス・させぼバス・松浦鉄道 1 日乗車券</t>
+  </si>
+  <si>
+    <t>西肥巴士·佐世保巴士·松浦铁路一日通券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nishihei-Bus-Sasebo-Bus-Matsuura-Railway-1Day.png</t>
+  </si>
+  <si>
+    <t>Matsuura-Railway-Silver-Members-1Day</t>
+  </si>
+  <si>
+    <t>シルバー会員専用１日乗車券</t>
+  </si>
+  <si>
+    <t>银会员专用一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Matsuura-Railway-Silver-Members-1Day.png</t>
+  </si>
+  <si>
+    <t>Nagasaki-Dentetsu-Densha-1Day-Ticket</t>
+  </si>
+  <si>
+    <t>電車一日乗車券</t>
+  </si>
+  <si>
+    <t>长崎电铁电车一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagasaki-Dentetsu-Densha-1Day-Ticket.png</t>
+  </si>
+  <si>
+    <t>Nagasaki-Dentetsu-24Hr-Ticket</t>
+  </si>
+  <si>
+    <t>24時間乗車券</t>
+  </si>
+  <si>
+    <t>24小时乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Nagasaki-Dentetsu-24Hr-Ticket.png</t>
+  </si>
+  <si>
+    <t>Shimabara-Tetsudo-Free-Pass</t>
+  </si>
+  <si>
+    <t>SHIMATETSU FREE PASS</t>
+  </si>
+  <si>
+    <t>島原铁道自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shimabara-Tetsudo-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Shimabara-Tetsudo-School-Kippu</t>
+  </si>
+  <si>
+    <t>しまてつスきっぷ</t>
+  </si>
+  <si>
+    <t>島原铁道学校票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Shimabara-Tetsudo-School-Kippu.png</t>
+  </si>
+  <si>
+    <t>Kumamoto-Wakuwaku-1Day-Pass</t>
+  </si>
+  <si>
+    <t>わくわく1dayパス</t>
+  </si>
+  <si>
+    <t>熊本欢乐一日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumamoto-Wakuwaku-1Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Kumamoto-Wakuwaku-24Hr-Pass</t>
+  </si>
+  <si>
+    <t>わくわく1dayパス24時間乗車券</t>
+  </si>
+  <si>
+    <t>熊本欢乐24小时通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumamoto-Wakuwaku-24Hr-Pass.png</t>
+  </si>
+  <si>
+    <t>Kumamoto-City-Tram-1Day</t>
+  </si>
+  <si>
+    <t>熊本市電1日乗車券</t>
+  </si>
+  <si>
+    <t>熊本市电一日券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumamoto-City-Tram-1Day.png</t>
+  </si>
+  <si>
+    <t>Kumamoto-City-Tram-Repeat</t>
+  </si>
+  <si>
+    <t>熊本市电一日券（重复列出）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumamoto-City-Tram-Repeat.png</t>
+  </si>
+  <si>
+    <t>Kumamoto-City-Tram-24Hr</t>
+  </si>
+  <si>
+    <t>熊本市電24時間乗車券</t>
+  </si>
+  <si>
+    <t>熊本市电24小时券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumamoto-City-Tram-24Hr.png</t>
+  </si>
+  <si>
+    <t>Minamiaso-Rail-Free-Kippu</t>
+  </si>
+  <si>
+    <t>１日フリーキップ</t>
+  </si>
+  <si>
+    <t>南阿苏铁路一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Minamiaso-Rail-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>Minamiaso-Rail-24Hr-Free</t>
+  </si>
+  <si>
+    <t>24時間フリー乗車券</t>
+  </si>
+  <si>
+    <t>南阿苏铁路24小时自由通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Minamiaso-Rail-24Hr-Free.png</t>
+  </si>
+  <si>
+    <t>Minamiaso-Tabi-Rail-Bus</t>
+  </si>
+  <si>
+    <t>/images/coverage/Minamiaso-Tabi-Rail-Bus.png</t>
+  </si>
+  <si>
+    <t>Kumagawa-Hitoyoshi-Kuma-DokoDemo-Kippu</t>
+  </si>
+  <si>
+    <t>人吉球磨どこでもキップ</t>
+  </si>
+  <si>
+    <t>人吉球磨不限乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumagawa-Hitoyoshi-Kuma-DokoDemo-Kippu.png</t>
+  </si>
+  <si>
+    <t>Kumagawa-Rail-1Day-Bus-Included</t>
+  </si>
+  <si>
+    <t>くま川鉄道一日乗車券(代行バス込み)</t>
+  </si>
+  <si>
+    <t>熊川铁路一日乘车券（含代行巴士）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumagawa-Rail-1Day-Bus-Included.png</t>
+  </si>
+  <si>
+    <t>Kumagawa-Rail-1Day-Rail-Only</t>
+  </si>
+  <si>
+    <t>くま川鉄道一日乗車券(鉄道のみ)</t>
+  </si>
+  <si>
+    <t>熊川铁路一日乘车券（仅限铁路）</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumagawa-Rail-1Day-Rail-Only.png</t>
+  </si>
+  <si>
+    <t>Kumagawa-Natsume-Yuujin-cho-Kinen-Kippu</t>
+  </si>
+  <si>
+    <t>夏目友人帳祈念乗車券</t>
+  </si>
+  <si>
+    <t>夏目友人帐纪念乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kumagawa-Natsume-Yuujin-cho-Kinen-Kippu.png</t>
+  </si>
+  <si>
+    <t>Orange-Rail-1Day-Free-Kippu</t>
+  </si>
+  <si>
+    <t>おれんじ1日フリー切符</t>
+  </si>
+  <si>
+    <t>橘铁一日自由券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Orange-Rail-1Day-Free-Kippu.png</t>
+  </si>
+  <si>
+    <t>North-Satsuma-Great-Pass</t>
+  </si>
+  <si>
+    <t>NORTH SATSUMA GREAT PASS</t>
+  </si>
+  <si>
+    <t>北薩摩大通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/North-Satsuma-Great-Pass.png</t>
+  </si>
+  <si>
+    <t>Kagoshima-City-Tram-Bus-City-View-1Day</t>
+  </si>
+  <si>
+    <t>市電・市バス・シティビュー一日乗車券</t>
+  </si>
+  <si>
+    <t>鹿儿岛市电·巴士·市景一日乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kagoshima-City-Tram-Bus-City-View-1Day.png</t>
+  </si>
+  <si>
+    <t>Kagoshima-City-Tram-Bus-City-View-24Hr</t>
+  </si>
+  <si>
+    <t>市電・市バス・シティビュー24時間乗車券</t>
+  </si>
+  <si>
+    <t>鹿儿岛市电·巴士·市景24小时乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kagoshima-City-Tram-Bus-City-View-24Hr.png</t>
+  </si>
+  <si>
+    <t>Cute-Kagoshima</t>
+  </si>
+  <si>
+    <t>キュート</t>
+  </si>
+  <si>
+    <t>Cute鹿儿岛票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Cute-Kagoshima.png</t>
+  </si>
+  <si>
+    <t>Kagoshima-City-Bus-Night-Pass</t>
+  </si>
+  <si>
+    <t>市電・市バス・シティビューナイトパス</t>
+  </si>
+  <si>
+    <t>鹿儿岛市电·巴士·市景夜间通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Kagoshima-City-Bus-Night-Pass.png</t>
+  </si>
+  <si>
+    <t>Okinawa-Monorail-1Day-Or-2Day</t>
+  </si>
+  <si>
+    <t>一日乗車券/二日乗車券</t>
+  </si>
+  <si>
+    <t>冲绳都市单轨1日/2日通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Okinawa-Monorail-1Day-Or-2Day.png</t>
+  </si>
+  <si>
+    <t>Bus-Mono-Pass</t>
+  </si>
+  <si>
+    <t>バスモノパス</t>
+  </si>
+  <si>
+    <t>巴士单轨通票</t>
+  </si>
+  <si>
+    <t>/images/coverage/Bus-Mono-Pass.png</t>
+  </si>
+  <si>
+    <t>Okinawa-24Hour-Free-Pass</t>
+  </si>
+  <si>
+    <t>24時間乗り放題乗車券</t>
+  </si>
+  <si>
+    <t>24小时无限乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Okinawa-24Hour-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Okinawa-Day-Pass</t>
+  </si>
+  <si>
+    <t>当日乗り放題乗車券</t>
+  </si>
+  <si>
+    <t>当日无限乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Okinawa-Day-Pass.png</t>
+  </si>
+  <si>
+    <t>Okinawa-48Hour-Free-Pass</t>
+  </si>
+  <si>
+    <t>48時間乗り放題乗車券</t>
+  </si>
+  <si>
+    <t>48小时无限乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Okinawa-48Hour-Free-Pass.png</t>
+  </si>
+  <si>
+    <t>Okinawa-Weekday-Off-Peak-Pass</t>
+  </si>
+  <si>
+    <t>平日オフピーク乗り放題乗車券</t>
+  </si>
+  <si>
+    <t>平日非高峰无限乘车券</t>
+  </si>
+  <si>
+    <t>/images/coverage/Okinawa-Weekday-Off-Peak-Pass.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +981,12 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -272,9 +1010,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -615,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:AC152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -631,7 +1370,7 @@
     <col min="24" max="24" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +1453,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:29">
       <c r="A2">
         <v>1</v>
       </c>
@@ -788,7 +1527,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:29">
       <c r="A3">
         <v>2</v>
       </c>
@@ -856,7 +1595,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>3</v>
       </c>
@@ -924,7 +1663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:29">
       <c r="A5">
         <v>4</v>
       </c>
@@ -992,7 +1731,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1060,60 +1799,920 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="11:13">
+    <row r="7" spans="1:29">
+      <c r="B7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="B8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="B9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="B11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="B13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="B14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="B15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC15" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="B16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29">
+      <c r="B17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29">
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29">
+      <c r="B19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29">
+      <c r="B20" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC20" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29">
+      <c r="B21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="11:13">
+      <c r="T21" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29">
+      <c r="B22" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>128</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="11:13">
+      <c r="T22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29">
+      <c r="B23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="11:13">
+      <c r="T23" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29">
+      <c r="B24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="11:13">
+      <c r="T24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29">
+      <c r="B25" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="11:13">
+      <c r="T25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC25" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29">
+      <c r="B26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="11:13">
+      <c r="T26" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC26" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29">
+      <c r="B27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="11:13">
+      <c r="T27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC27" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29">
+      <c r="B28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="11:13">
+      <c r="T28" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
+      <c r="B29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="11:13">
+      <c r="T29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:29">
+      <c r="B30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>160</v>
+      </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="11:13">
+      <c r="T30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29">
+      <c r="B31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
+      <c r="T31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="2:29">
+      <c r="B32" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="2:29">
+      <c r="B36" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29">
+      <c r="B37" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="2:29">
+      <c r="B38" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="B41" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29">
+      <c r="B42" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29">
+      <c r="B43" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="B44" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29">
+      <c r="B45" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29">
+      <c r="B46" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29">
+      <c r="B47" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29">
+      <c r="B48" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="49" spans="2:29">
+      <c r="B49" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="2:29">
+      <c r="B50" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="2:29">
+      <c r="B51" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="2:29">
+      <c r="B52" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:29">
+      <c r="B53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" spans="2:29">
+      <c r="B54" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="55" spans="2:29">
+      <c r="B55" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="2:29">
+      <c r="B56" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AC56" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="2:29">
+      <c r="B57" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC57" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="2:29">
+      <c r="B58" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC58" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="59" spans="2:29">
+      <c r="B59" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AC59" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="2:29">
+      <c r="B60" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AC60" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="61" spans="2:29">
+      <c r="B61" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AC61" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="62" spans="2:29">
+      <c r="B62" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AC62" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="63" spans="2:29">
+      <c r="B63" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="AC63" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="64" spans="2:29">
+      <c r="B64" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="AC64" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29">
+      <c r="B65" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC65" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29">
+      <c r="B66" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="AC66" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29">
+      <c r="B67" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC67" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="68" spans="2:29">
+      <c r="B68" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC68" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29">
+      <c r="B69" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC69" s="2" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="97" spans="11:13">
       <c r="K97" s="1"/>

--- a/src/excel-data/kyushu.xlsx
+++ b/src/excel-data/kyushu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915A9AB-7A9E-1742-A501-40F5BA52E1E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C8449-4A55-B94D-BB00-5EE422324E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="九州周游券" sheetId="1" r:id="rId1"/>

--- a/src/excel-data/kyushu.xlsx
+++ b/src/excel-data/kyushu.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2C8449-4A55-B94D-BB00-5EE422324E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A1F884-A975-904F-A3B6-792EC9571322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="九州周游券" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="309">
   <si>
     <t>sortOrder</t>
   </si>
@@ -391,39 +404,12 @@
     <t>/images/coverage/JRKyushu-Hello-Free-Time-Green-Net-Pass-North-Kyushu.png</t>
   </si>
   <si>
-    <t>JRKyushu-JQ-Card-Odekake-Net-Pass-Kyushu</t>
-  </si>
-  <si>
-    <t>JQ CARDおでかけネットパス(全九州版)</t>
-  </si>
-  <si>
-    <t>JQ卡外出网络通票(全九州版)</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRKyushu-JQ-Card-Odekake-Net-Pass-Kyushu.png</t>
-  </si>
-  <si>
-    <t>JRKyushu-JQ-Card-Odekake-Net-Pass-North-Kyushu</t>
-  </si>
-  <si>
-    <t>JQ CARDおでかけネットパス(北部九州版)</t>
-  </si>
-  <si>
-    <t>JQ卡外出网络通票(北九州版)</t>
-  </si>
-  <si>
-    <t>/images/coverage/JRKyushu-JQ-Card-Odekake-Net-Pass-North-Kyushu.png</t>
-  </si>
-  <si>
     <t>Solaseed-Kagoshima-Miyazaki-Free-Kippu</t>
   </si>
   <si>
     <t>鹿児島・宮崎フリーきっぷ</t>
   </si>
   <si>
-    <t>鹿儿岛·宫崎自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Solaseed-Kagoshima-Miyazaki-Free-Kippu.png</t>
   </si>
   <si>
@@ -433,9 +419,6 @@
     <t>由布院・別府フリーきっぷ</t>
   </si>
   <si>
-    <t>由布院·别府自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Solaseed-Yufuin-Beppu-Free-Kippu.png</t>
   </si>
   <si>
@@ -445,9 +428,6 @@
     <t>西九州フリーきっぷ</t>
   </si>
   <si>
-    <t>西九州自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Solaseed-West-Kyushu-Free-Kippu.png</t>
   </si>
   <si>
@@ -457,9 +437,6 @@
     <t>中九州フリーきっぷ</t>
   </si>
   <si>
-    <t>中九州自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Solaseed-Central-Kyushu-Free-Kippu.png</t>
   </si>
   <si>
@@ -469,9 +446,6 @@
     <t>全九州フリーきっぷ</t>
   </si>
   <si>
-    <t>全九州自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Solaseed-Whole-Kyushu-Free-Kippu.png</t>
   </si>
   <si>
@@ -953,13 +927,395 @@
   </si>
   <si>
     <t>/images/coverage/Okinawa-Weekday-Off-Peak-Pass.png</t>
+  </si>
+  <si>
+    <t>購入日より３ヶ月の任意の３日(回)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鹿儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>崎自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鹿儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>崎自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>由布院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>府自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>由布院</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>府自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>西九州自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>西九州自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中九州自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>中九州自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全九州自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全九州自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>全九州自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -988,6 +1344,34 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="MS Mincho"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Noto Sans CJK JP"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1010,10 +1394,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1354,10 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC152"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1806,6 +2192,33 @@
       <c r="C7" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="D7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="3">
+        <v>12000</v>
+      </c>
+      <c r="G7" s="3">
+        <v>12000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>27</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
       <c r="T7" s="2" t="s">
         <v>69</v>
       </c>
@@ -1820,6 +2233,27 @@
       <c r="C8" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="E8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1850</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>27</v>
+      </c>
+      <c r="R8" t="s">
+        <v>29</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
       <c r="T8" s="2" t="s">
         <v>73</v>
       </c>
@@ -1834,6 +2268,27 @@
       <c r="C9" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="E9" s="3">
+        <v>2670</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1340</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" t="s">
+        <v>29</v>
+      </c>
+      <c r="S9" t="s">
+        <v>30</v>
+      </c>
       <c r="T9" s="2" t="s">
         <v>77</v>
       </c>
@@ -1848,6 +2303,33 @@
       <c r="C10" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="E10" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>14300</v>
+      </c>
+      <c r="G10" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7150</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
       <c r="T10" s="2" t="s">
         <v>81</v>
       </c>
@@ -1862,6 +2344,27 @@
       <c r="C11" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E11" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1150</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" t="s">
+        <v>29</v>
+      </c>
+      <c r="S11" t="s">
+        <v>30</v>
+      </c>
       <c r="T11" s="2" t="s">
         <v>85</v>
       </c>
@@ -1876,6 +2379,27 @@
       <c r="C12" s="2" t="s">
         <v>88</v>
       </c>
+      <c r="E12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1220</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>27</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12" t="s">
+        <v>30</v>
+      </c>
       <c r="T12" s="2" t="s">
         <v>89</v>
       </c>
@@ -1890,6 +2414,27 @@
       <c r="C13" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="E13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G13" s="3">
+        <v>750</v>
+      </c>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" t="s">
+        <v>30</v>
+      </c>
       <c r="T13" s="2" t="s">
         <v>93</v>
       </c>
@@ -1904,6 +2449,27 @@
       <c r="C14" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="E14" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G14" s="3">
+        <v>950</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R14" t="s">
+        <v>29</v>
+      </c>
+      <c r="S14" t="s">
+        <v>30</v>
+      </c>
       <c r="T14" s="2" t="s">
         <v>97</v>
       </c>
@@ -1918,6 +2484,12 @@
       <c r="C15" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="E15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O15">
+        <v>24</v>
+      </c>
       <c r="T15" s="2" t="s">
         <v>101</v>
       </c>
@@ -1932,6 +2504,12 @@
       <c r="C16" s="2" t="s">
         <v>104</v>
       </c>
+      <c r="E16" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O16">
+        <v>24</v>
+      </c>
       <c r="T16" s="2" t="s">
         <v>105</v>
       </c>
@@ -1946,6 +2524,24 @@
       <c r="C17" s="2" t="s">
         <v>108</v>
       </c>
+      <c r="E17" s="3">
+        <v>22800</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>30</v>
+      </c>
       <c r="T17" s="2" t="s">
         <v>109</v>
       </c>
@@ -1960,6 +2556,24 @@
       <c r="C18" s="2" t="s">
         <v>112</v>
       </c>
+      <c r="E18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18" t="s">
+        <v>29</v>
+      </c>
+      <c r="S18" t="s">
+        <v>30</v>
+      </c>
       <c r="T18" s="2" t="s">
         <v>113</v>
       </c>
@@ -1974,6 +2588,24 @@
       <c r="C19" s="2" t="s">
         <v>116</v>
       </c>
+      <c r="E19" s="3">
+        <v>26000</v>
+      </c>
+      <c r="O19">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="S19" t="s">
+        <v>30</v>
+      </c>
       <c r="T19" s="2" t="s">
         <v>117</v>
       </c>
@@ -1988,6 +2620,24 @@
       <c r="C20" s="2" t="s">
         <v>120</v>
       </c>
+      <c r="E20" s="3">
+        <v>13500</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R20" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" t="s">
+        <v>30</v>
+      </c>
       <c r="T20" s="2" t="s">
         <v>121</v>
       </c>
@@ -1995,744 +2645,957 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:29">
+    <row r="21" spans="2:29" ht="19">
       <c r="B21" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>124</v>
+      <c r="C21" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6390</v>
+      </c>
+      <c r="G21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>3240</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="T21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:29">
+    <row r="22" spans="2:29" ht="19">
       <c r="B22" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G22" s="3">
+        <v>7560</v>
+      </c>
+      <c r="H22" s="3">
+        <v>3780</v>
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="T22" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AC22" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="2:29">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" ht="17">
       <c r="B23" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>132</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8640</v>
+      </c>
+      <c r="G23" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>4320</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="T23" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AC23" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="2:29">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" ht="17">
       <c r="B24" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24" s="3">
+        <v>10900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>9810</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4950</v>
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="T24" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="AC24" s="2" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="2:29">
       <c r="B25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>140</v>
+        <v>128</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E25" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F25" s="3">
+        <v>10350</v>
+      </c>
+      <c r="G25" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5220</v>
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="T25" s="2" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:29">
       <c r="B26" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>144</v>
+        <v>128</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F26" s="3">
+        <v>11340</v>
+      </c>
+      <c r="G26" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5670</v>
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="T26" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="AC26" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="2:29">
       <c r="B27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F27" s="3">
+        <v>11160</v>
+      </c>
+      <c r="G27" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5580</v>
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="T27" s="2" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="AC27" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="2:29">
       <c r="B28" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>152</v>
+        <v>131</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E28" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F28" s="3">
+        <v>12420</v>
+      </c>
+      <c r="G28" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H28" s="3">
+        <v>6210</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="T28" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="AC28" s="2" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:29">
       <c r="B29" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>156</v>
+        <v>134</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="E29" s="3">
+        <v>36100</v>
+      </c>
+      <c r="F29" s="3">
+        <v>32490</v>
+      </c>
+      <c r="G29" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H29" s="3">
+        <v>16290</v>
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="T29" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="AC29" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="2:29">
       <c r="B30" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>160</v>
+        <v>134</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E30" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F30" s="3">
+        <v>33660</v>
+      </c>
+      <c r="G30" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H30" s="3">
+        <v>16830</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="T30" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="AC30" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="2:29">
       <c r="B31" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>134</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="E31" s="3">
+        <v>38700</v>
+      </c>
+      <c r="F31" s="3">
+        <v>34830</v>
+      </c>
+      <c r="G31" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H31" s="3">
+        <v>17460</v>
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="T31" s="2" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AC31" s="2" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="2:29">
       <c r="B32" s="2" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>168</v>
+        <v>139</v>
+      </c>
+      <c r="E32" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>27</v>
+      </c>
+      <c r="R32" t="s">
+        <v>29</v>
+      </c>
+      <c r="S32" t="s">
+        <v>30</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="AC32" s="2" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="2:29">
       <c r="B33" s="2" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>171</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="E33" s="3">
+        <v>820</v>
+      </c>
+      <c r="G33" s="3">
+        <v>420</v>
+      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="T33" s="2" t="s">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="AC33" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="34" spans="2:29">
       <c r="B34" s="2" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>175</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E34" s="3">
+        <v>700</v>
+      </c>
+      <c r="G34" s="3">
+        <v>350</v>
+      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
       <c r="T34" s="2" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="AC34" s="2" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:29">
       <c r="B35" s="2" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>179</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
       <c r="T35" s="2" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="AC35" s="2" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:29">
       <c r="B36" s="2" t="s">
-        <v>181</v>
+        <v>153</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="2:29">
       <c r="B37" s="2" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="2:29">
       <c r="B38" s="2" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="2:29">
       <c r="B39" s="2" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="AC39" s="2" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="2:29">
       <c r="B40" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="AC40" s="2" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" spans="2:29">
       <c r="B41" s="2" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="2:29">
       <c r="B42" s="2" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="AC42" s="2" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="2:29">
       <c r="B43" s="2" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="2:29">
       <c r="B44" s="2" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="AC44" s="2" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="45" spans="2:29">
       <c r="B45" s="2" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="AC45" s="2" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="2:29">
       <c r="B46" s="2" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
       <c r="AC46" s="2" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="2:29">
       <c r="B47" s="2" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="AC47" s="2" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="2:29">
       <c r="B48" s="2" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
       <c r="AC48" s="2" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="2:29">
       <c r="B49" s="2" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="AC49" s="2" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="50" spans="2:29">
       <c r="B50" s="2" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="2:29">
       <c r="B51" s="2" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="AC51" s="2" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
     </row>
     <row r="52" spans="2:29">
       <c r="B52" s="2" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="AC52" s="2" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
     </row>
     <row r="53" spans="2:29">
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>104</v>
+        <v>221</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>105</v>
+        <v>222</v>
       </c>
       <c r="AC53" s="2" t="s">
-        <v>103</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="2:29">
       <c r="B54" s="2" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="AC54" s="2" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="2:29">
       <c r="B55" s="2" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="AC55" s="2" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="2:29">
       <c r="B56" s="2" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>256</v>
+        <v>100</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="AC56" s="2" t="s">
-        <v>255</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="2:29">
       <c r="B57" s="2" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>261</v>
+        <v>105</v>
       </c>
       <c r="AC57" s="2" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="2:29">
       <c r="B58" s="2" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="AC58" s="2" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="2:29">
       <c r="B59" s="2" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
     </row>
     <row r="60" spans="2:29">
       <c r="B60" s="2" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
     </row>
     <row r="61" spans="2:29">
       <c r="B61" s="2" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="AC61" s="2" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
     </row>
     <row r="62" spans="2:29">
       <c r="B62" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="AC62" s="2" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
     </row>
     <row r="63" spans="2:29">
       <c r="B63" s="2" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
     </row>
     <row r="64" spans="2:29">
       <c r="B64" s="2" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>287</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="2:29">
       <c r="B65" s="2" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="2:29">
       <c r="B66" s="2" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>295</v>
+        <v>266</v>
       </c>
     </row>
     <row r="67" spans="2:29">
       <c r="B67" s="2" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="2:29">
       <c r="B68" s="2" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>303</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="2:29">
       <c r="B69" s="2" t="s">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>309</v>
+        <v>280</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="97" spans="11:13">
-      <c r="K97" s="1"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="11:13">
-      <c r="K98">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="99" spans="11:13">
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="11:13">
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29">
+      <c r="B70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC70" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29">
+      <c r="B71" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AC71" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29">
+      <c r="B72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="AC72" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29">
+      <c r="B73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC73" s="2" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="101" spans="11:13">
       <c r="K101" s="1"/>
@@ -2740,9 +3603,9 @@
       <c r="M101" s="1"/>
     </row>
     <row r="102" spans="11:13">
-      <c r="K102" s="1"/>
-      <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
+      <c r="K102">
+        <v>2330</v>
+      </c>
     </row>
     <row r="103" spans="11:13">
       <c r="K103" s="1"/>
@@ -2993,6 +3856,26 @@
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
       <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="11:13">
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="11:13">
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="11:13">
+      <c r="K155" s="1"/>
+      <c r="L155" s="1"/>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="11:13">
+      <c r="K156" s="1"/>
+      <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/kyushu.xlsx
+++ b/src/excel-data/kyushu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A1F884-A975-904F-A3B6-792EC9571322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2B836E-23F4-8640-955C-7D71B0B49323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="304">
   <si>
     <t>sortOrder</t>
   </si>
@@ -632,9 +632,6 @@
     <t>SHIMATETSU FREE PASS</t>
   </si>
   <si>
-    <t>島原铁道自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Shimabara-Tetsudo-Free-Pass.png</t>
   </si>
   <si>
@@ -686,15 +683,6 @@
     <t>/images/coverage/Kumamoto-City-Tram-1Day.png</t>
   </si>
   <si>
-    <t>Kumamoto-City-Tram-Repeat</t>
-  </si>
-  <si>
-    <t>熊本市电一日券（重复列出）</t>
-  </si>
-  <si>
-    <t>/images/coverage/Kumamoto-City-Tram-Repeat.png</t>
-  </si>
-  <si>
     <t>Kumamoto-City-Tram-24Hr</t>
   </si>
   <si>
@@ -773,18 +761,6 @@
     <t>/images/coverage/Kumagawa-Rail-1Day-Rail-Only.png</t>
   </si>
   <si>
-    <t>Kumagawa-Natsume-Yuujin-cho-Kinen-Kippu</t>
-  </si>
-  <si>
-    <t>夏目友人帳祈念乗車券</t>
-  </si>
-  <si>
-    <t>夏目友人帐纪念乘车券</t>
-  </si>
-  <si>
-    <t>/images/coverage/Kumagawa-Natsume-Yuujin-cho-Kinen-Kippu.png</t>
-  </si>
-  <si>
     <t>Orange-Rail-1Day-Free-Kippu</t>
   </si>
   <si>
@@ -803,9 +779,6 @@
     <t>NORTH SATSUMA GREAT PASS</t>
   </si>
   <si>
-    <t>北薩摩大通票</t>
-  </si>
-  <si>
     <t>/images/coverage/North-Satsuma-Great-Pass.png</t>
   </si>
   <si>
@@ -839,22 +812,7 @@
     <t>キュート</t>
   </si>
   <si>
-    <t>Cute鹿儿岛票</t>
-  </si>
-  <si>
     <t>/images/coverage/Cute-Kagoshima.png</t>
-  </si>
-  <si>
-    <t>Kagoshima-City-Bus-Night-Pass</t>
-  </si>
-  <si>
-    <t>市電・市バス・シティビューナイトパス</t>
-  </si>
-  <si>
-    <t>鹿儿岛市电·巴士·市景夜间通票</t>
-  </si>
-  <si>
-    <t>/images/coverage/Kagoshima-City-Bus-Night-Pass.png</t>
   </si>
   <si>
     <t>Okinawa-Monorail-1Day-Or-2Day</t>
@@ -1308,6 +1266,203 @@
       </rPr>
       <t>5</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>春休み：2025年3月25日～2024年4月6日
+夏休み：2025年7月19日～2025年8月26日
+冬休み：2025年12月24日～2026年1月6日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>島原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>道自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>島原</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>铁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>道自由通票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土・日・祝日
+春・夏・冬休み期間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北薩摩大通票1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>北薩摩大通票3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Cute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鹿儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Cute</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>鹿儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Noto Sans CJK JP"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>岛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ticket_note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1315,7 +1470,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1372,6 +1527,11 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Hiragino Kaku Gothic ProN"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1394,12 +1554,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1740,10 +1906,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AG161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1756,7 +1922,7 @@
     <col min="24" max="24" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1838,8 +2004,11 @@
       <c r="AA1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:29">
+      <c r="AB1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1913,7 +2082,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:33">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1981,7 +2150,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:33">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2049,7 +2218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:33">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2117,7 +2286,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:33">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2185,7 +2354,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:33">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>66</v>
       </c>
@@ -2193,7 +2365,7 @@
         <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="E7" s="3">
         <v>12000</v>
@@ -2222,11 +2394,14 @@
       <c r="T7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:33">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>70</v>
       </c>
@@ -2257,11 +2432,14 @@
       <c r="T8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:33">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>74</v>
       </c>
@@ -2292,11 +2470,14 @@
       <c r="T9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:33">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
@@ -2333,11 +2514,14 @@
       <c r="T10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AC10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:33">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2368,11 +2552,14 @@
       <c r="T11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:33">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
@@ -2403,11 +2590,14 @@
       <c r="T12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:33">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
@@ -2438,11 +2628,14 @@
       <c r="T13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:33">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>94</v>
       </c>
@@ -2473,11 +2666,14 @@
       <c r="T14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AG14" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:33">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>98</v>
       </c>
@@ -2493,11 +2689,14 @@
       <c r="T15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AC15" s="2" t="s">
+      <c r="AG15" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:33">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>102</v>
       </c>
@@ -2513,11 +2712,14 @@
       <c r="T16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AC16" s="2" t="s">
+      <c r="AG16" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:29">
+    <row r="17" spans="1:33">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>106</v>
       </c>
@@ -2545,11 +2747,14 @@
       <c r="T17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AC17" s="2" t="s">
+      <c r="AG17" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="18" spans="2:29">
+    <row r="18" spans="1:33">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>110</v>
       </c>
@@ -2577,11 +2782,14 @@
       <c r="T18" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AC18" s="2" t="s">
+      <c r="AG18" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="2:29">
+    <row r="19" spans="1:33">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>114</v>
       </c>
@@ -2609,11 +2817,14 @@
       <c r="T19" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AC19" s="2" t="s">
+      <c r="AG19" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:29">
+    <row r="20" spans="1:33">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>118</v>
       </c>
@@ -2641,16 +2852,19 @@
       <c r="T20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AC20" s="2" t="s">
+      <c r="AG20" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="2:29" ht="19">
+    <row r="21" spans="1:33" ht="19">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E21" s="3">
         <v>7100</v>
@@ -2670,16 +2884,19 @@
       <c r="T21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC21" s="2" t="s">
+      <c r="AG21" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="2:29" ht="19">
+    <row r="22" spans="1:33" ht="19">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E22" s="3">
         <v>8400</v>
@@ -2699,16 +2916,19 @@
       <c r="T22" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AC22" s="2" t="s">
+      <c r="AG22" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="23" spans="2:29" ht="17">
+    <row r="23" spans="1:33" ht="17">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E23" s="3">
         <v>9600</v>
@@ -2728,16 +2948,19 @@
       <c r="T23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AC23" s="2" t="s">
+      <c r="AG23" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="2:29" ht="17">
+    <row r="24" spans="1:33" ht="17">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E24" s="3">
         <v>10900</v>
@@ -2757,16 +2980,19 @@
       <c r="T24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AC24" s="2" t="s">
+      <c r="AG24" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="2:29">
+    <row r="25" spans="1:33">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E25" s="3">
         <v>11500</v>
@@ -2786,16 +3012,19 @@
       <c r="T25" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AG25" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="2:29">
+    <row r="26" spans="1:33">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E26" s="3">
         <v>12600</v>
@@ -2815,16 +3044,19 @@
       <c r="T26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AC26" s="2" t="s">
+      <c r="AG26" s="2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:29">
+    <row r="27" spans="1:33">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E27" s="3">
         <v>12400</v>
@@ -2844,16 +3076,19 @@
       <c r="T27" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AC27" s="2" t="s">
+      <c r="AG27" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="2:29">
+    <row r="28" spans="1:33">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E28" s="3">
         <v>13800</v>
@@ -2873,16 +3108,19 @@
       <c r="T28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AC28" s="2" t="s">
+      <c r="AG28" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="2:29">
+    <row r="29" spans="1:33">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="E29" s="3">
         <v>36100</v>
@@ -2902,16 +3140,19 @@
       <c r="T29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AC29" s="2" t="s">
+      <c r="AG29" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="30" spans="2:29">
+    <row r="30" spans="1:33">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E30" s="3">
         <v>37400</v>
@@ -2931,16 +3172,19 @@
       <c r="T30" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AC30" s="2" t="s">
+      <c r="AG30" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="2:29">
+    <row r="31" spans="1:33">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="E31" s="3">
         <v>38700</v>
@@ -2960,11 +3204,14 @@
       <c r="T31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AC31" s="2" t="s">
+      <c r="AG31" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:29">
+    <row r="32" spans="1:33">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>137</v>
       </c>
@@ -2998,11 +3245,14 @@
       <c r="T32" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AC32" s="2" t="s">
+      <c r="AG32" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="2:29">
+    <row r="33" spans="1:33">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>141</v>
       </c>
@@ -3021,11 +3271,14 @@
       <c r="T33" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AC33" s="2" t="s">
+      <c r="AG33" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="34" spans="2:29">
+    <row r="34" spans="1:33">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>145</v>
       </c>
@@ -3044,594 +3297,1449 @@
       <c r="T34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AC34" s="2" t="s">
+      <c r="AG34" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="35" spans="2:29">
+    <row r="35" spans="1:33">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>151</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G35" s="3">
+        <v>800</v>
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>27</v>
+      </c>
+      <c r="R35" t="s">
+        <v>29</v>
+      </c>
+      <c r="S35" t="s">
+        <v>30</v>
+      </c>
       <c r="T35" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AC35" s="2" t="s">
+      <c r="AG35" s="2" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="2:29">
+    <row r="36" spans="1:33">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="E36" s="3">
+        <v>920</v>
+      </c>
+      <c r="G36" s="3">
+        <v>460</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>27</v>
+      </c>
+      <c r="R36" t="s">
+        <v>29</v>
+      </c>
+      <c r="S36" t="s">
+        <v>30</v>
+      </c>
       <c r="T36" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="AC36" s="2" t="s">
+      <c r="AG36" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="2:29">
+    <row r="37" spans="1:33">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>158</v>
       </c>
+      <c r="E37" s="3">
+        <v>640</v>
+      </c>
+      <c r="G37" s="3">
+        <v>320</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>27</v>
+      </c>
+      <c r="R37" t="s">
+        <v>29</v>
+      </c>
+      <c r="S37" t="s">
+        <v>30</v>
+      </c>
       <c r="T37" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AC37" s="2" t="s">
+      <c r="AG37" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="2:29">
+    <row r="38" spans="1:33">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="E38" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>27</v>
+      </c>
+      <c r="R38" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" t="s">
+        <v>30</v>
+      </c>
       <c r="T38" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="AC38" s="2" t="s">
+      <c r="AG38" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="2:29">
+    <row r="39" spans="1:33">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="E39">
+        <v>800</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>27</v>
+      </c>
+      <c r="R39" t="s">
+        <v>29</v>
+      </c>
+      <c r="S39" t="s">
+        <v>30</v>
+      </c>
       <c r="T39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AC39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="40" spans="2:29">
+    <row r="40" spans="1:33" ht="192">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="E40" s="3">
+        <v>100</v>
+      </c>
+      <c r="O40">
+        <v>1</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="S40" t="s">
+        <v>30</v>
+      </c>
       <c r="T40" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AC40" s="2" t="s">
+      <c r="AG40" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="41" spans="2:29">
+    <row r="41" spans="1:33">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="E41">
+        <v>860</v>
+      </c>
+      <c r="G41">
+        <v>430</v>
+      </c>
+      <c r="O41">
+        <v>1</v>
+      </c>
+      <c r="P41" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>27</v>
+      </c>
+      <c r="R41" t="s">
+        <v>29</v>
+      </c>
+      <c r="S41" t="s">
+        <v>30</v>
+      </c>
       <c r="T41" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AC41" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="2:29">
+    <row r="42" spans="1:33">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>178</v>
       </c>
+      <c r="E42" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G42">
+        <v>500</v>
+      </c>
+      <c r="O42">
+        <v>1</v>
+      </c>
+      <c r="P42" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42" t="s">
+        <v>29</v>
+      </c>
+      <c r="S42" t="s">
+        <v>30</v>
+      </c>
       <c r="T42" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AC42" s="2" t="s">
+      <c r="AG42" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="43" spans="2:29">
+    <row r="43" spans="1:33">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>182</v>
       </c>
+      <c r="E43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O43">
+        <v>1</v>
+      </c>
+      <c r="P43" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>27</v>
+      </c>
+      <c r="R43" t="s">
+        <v>29</v>
+      </c>
+      <c r="S43" t="s">
+        <v>30</v>
+      </c>
       <c r="T43" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AC43" s="2" t="s">
+      <c r="AG43" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="44" spans="2:29">
+    <row r="44" spans="1:33">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>186</v>
       </c>
+      <c r="E44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O44">
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44" t="s">
+        <v>29</v>
+      </c>
+      <c r="S44" t="s">
+        <v>30</v>
+      </c>
       <c r="T44" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AC44" s="2" t="s">
+      <c r="AG44" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="2:29">
+    <row r="45" spans="1:33">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45">
+        <v>300</v>
+      </c>
+      <c r="O45">
+        <v>1</v>
+      </c>
+      <c r="P45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" t="s">
+        <v>30</v>
+      </c>
       <c r="T45" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AC45" s="2" t="s">
+      <c r="AG45" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="46" spans="2:29">
+    <row r="46" spans="1:33">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="E46" s="3">
+        <v>700</v>
+      </c>
+      <c r="G46">
+        <v>350</v>
+      </c>
+      <c r="O46">
+        <v>24</v>
+      </c>
+      <c r="R46" t="s">
+        <v>29</v>
+      </c>
+      <c r="S46" t="s">
+        <v>30</v>
+      </c>
       <c r="T46" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="AC46" s="2" t="s">
+      <c r="AG46" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="2:29">
+    <row r="47" spans="1:33" ht="19">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="O47">
+        <v>1</v>
+      </c>
+      <c r="P47" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" t="s">
+        <v>30</v>
+      </c>
+      <c r="T47" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="T47" s="2" t="s">
+      <c r="AG47" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="19">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G48" s="3"/>
+      <c r="O48">
+        <v>2</v>
+      </c>
+      <c r="P48" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>27</v>
+      </c>
+      <c r="R48" t="s">
+        <v>29</v>
+      </c>
+      <c r="S48" t="s">
+        <v>30</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:33" ht="48">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="AC47" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="2:29">
-      <c r="B48" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O49">
+        <v>1</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG49" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="T48" s="2" t="s">
+    </row>
+    <row r="50" spans="1:33">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AC48" s="2" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="2:29">
-      <c r="B49" s="2" t="s">
+      <c r="C50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K50">
+        <v>800</v>
+      </c>
+      <c r="O50">
+        <v>1</v>
+      </c>
+      <c r="P50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>27</v>
+      </c>
+      <c r="R50" t="s">
+        <v>29</v>
+      </c>
+      <c r="S50" t="s">
+        <v>30</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C49" s="2" t="s">
+    </row>
+    <row r="51" spans="1:33">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K51">
+        <v>1000</v>
+      </c>
+      <c r="O51">
+        <v>1</v>
+      </c>
+      <c r="P51" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+      <c r="R51" t="s">
+        <v>29</v>
+      </c>
+      <c r="S51" t="s">
+        <v>30</v>
+      </c>
+      <c r="T51" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="T49" s="2" t="s">
+      <c r="AG51" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:33">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K52">
+        <v>2200</v>
+      </c>
+      <c r="O52">
+        <v>1</v>
+      </c>
+      <c r="P52" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52" t="s">
+        <v>29</v>
+      </c>
+      <c r="S52" t="s">
+        <v>30</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:33">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AC49" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="2:29">
-      <c r="B50" s="2" t="s">
+      <c r="C53" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K53">
+        <v>800</v>
+      </c>
+      <c r="O53">
+        <v>24</v>
+      </c>
+      <c r="R53" t="s">
+        <v>29</v>
+      </c>
+      <c r="S53" t="s">
+        <v>30</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG53" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="54" spans="1:33">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K54">
+        <v>1000</v>
+      </c>
+      <c r="O54">
+        <v>24</v>
+      </c>
+      <c r="R54" t="s">
+        <v>29</v>
+      </c>
+      <c r="S54" t="s">
+        <v>30</v>
+      </c>
+      <c r="T54" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T50" s="2" t="s">
+      <c r="AG54" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:33">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K55">
+        <v>2200</v>
+      </c>
+      <c r="O55">
+        <v>24</v>
+      </c>
+      <c r="R55" t="s">
+        <v>29</v>
+      </c>
+      <c r="S55" t="s">
+        <v>30</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AG55" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56" spans="1:33">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AC50" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="51" spans="2:29">
-      <c r="B51" s="2" t="s">
+      <c r="C56" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56">
+        <v>700</v>
+      </c>
+      <c r="F56">
+        <v>500</v>
+      </c>
+      <c r="G56">
+        <v>350</v>
+      </c>
+      <c r="H56">
+        <v>250</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="AG56" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="T51" s="2" t="s">
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AC51" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="52" spans="2:29">
-      <c r="B52" s="2" t="s">
+      <c r="C57" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E57">
+        <v>600</v>
+      </c>
+      <c r="G57">
+        <v>300</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R57" t="s">
+        <v>29</v>
+      </c>
+      <c r="S57" t="s">
+        <v>30</v>
+      </c>
+      <c r="T57" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG57" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="2:29">
-      <c r="B53" s="2" t="s">
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="T53" s="2" t="s">
+      <c r="E58" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T58" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="AC53" s="2" t="s">
+      <c r="AG58" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="2:29">
-      <c r="B54" s="2" t="s">
+    <row r="59" spans="1:33">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="T54" s="2" t="s">
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O59">
+        <v>1</v>
+      </c>
+      <c r="P59" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>27</v>
+      </c>
+      <c r="R59" t="s">
+        <v>29</v>
+      </c>
+      <c r="S59" t="s">
+        <v>30</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AC54" s="2" t="s">
+      <c r="AG59" s="2" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="55" spans="2:29">
-      <c r="B55" s="2" t="s">
+    <row r="60" spans="1:33">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O60">
+        <v>24</v>
+      </c>
+      <c r="R60" t="s">
+        <v>29</v>
+      </c>
+      <c r="S60" t="s">
+        <v>30</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG60" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:33">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O61">
+        <v>24</v>
+      </c>
+      <c r="R61" t="s">
+        <v>29</v>
+      </c>
+      <c r="S61" t="s">
+        <v>30</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG61" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="1:33">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T55" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G62">
+        <v>1000</v>
+      </c>
+      <c r="O62">
+        <v>1</v>
+      </c>
+      <c r="P62" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>27</v>
+      </c>
+      <c r="R62" t="s">
+        <v>29</v>
+      </c>
+      <c r="S62" t="s">
+        <v>30</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG62" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AC55" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="56" spans="2:29">
-      <c r="B56" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T56" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="2:29">
-      <c r="B57" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="T57" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="2:29">
-      <c r="B58" s="2" t="s">
+    </row>
+    <row r="63" spans="1:33">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="T58" s="2" t="s">
+      <c r="E63" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G63">
+        <v>600</v>
+      </c>
+      <c r="T63" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AC58" s="2" t="s">
+      <c r="AG63" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="59" spans="2:29">
-      <c r="B59" s="2" t="s">
+    <row r="64" spans="1:33">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="T59" s="2" t="s">
+      <c r="E64" s="3">
+        <v>900</v>
+      </c>
+      <c r="G64">
+        <v>450</v>
+      </c>
+      <c r="T64" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AC59" s="2" t="s">
+      <c r="AG64" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="60" spans="2:29">
-      <c r="B60" s="2" t="s">
+    <row r="65" spans="1:33">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C65" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="T60" s="2" t="s">
+      <c r="E65" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I65" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O65">
+        <v>1</v>
+      </c>
+      <c r="P65" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>27</v>
+      </c>
+      <c r="R65" t="s">
+        <v>29</v>
+      </c>
+      <c r="S65" t="s">
+        <v>30</v>
+      </c>
+      <c r="T65" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AC60" s="2" t="s">
+      <c r="AG65" s="2" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="61" spans="2:29">
-      <c r="B61" s="2" t="s">
+    <row r="66" spans="1:33">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C66" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>27</v>
+      </c>
+      <c r="R66" t="s">
+        <v>29</v>
+      </c>
+      <c r="S66" t="s">
+        <v>30</v>
+      </c>
+      <c r="T66" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="T61" s="2" t="s">
+      <c r="AG66" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="67" spans="1:33">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="E67" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O67">
+        <v>3</v>
+      </c>
+      <c r="P67" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>27</v>
+      </c>
+      <c r="R67" t="s">
+        <v>29</v>
+      </c>
+      <c r="S67" t="s">
+        <v>30</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG67" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="68" spans="1:33">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AC61" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="62" spans="2:29">
-      <c r="B62" s="2" t="s">
+      <c r="C68" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E68" s="3">
+        <v>600</v>
+      </c>
+      <c r="G68" s="3">
+        <v>300</v>
+      </c>
+      <c r="O68">
+        <v>1</v>
+      </c>
+      <c r="P68" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>27</v>
+      </c>
+      <c r="R68" t="s">
+        <v>29</v>
+      </c>
+      <c r="S68" t="s">
+        <v>30</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG68" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="T62" s="2" t="s">
+    </row>
+    <row r="69" spans="1:33">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AC62" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="63" spans="2:29">
-      <c r="B63" s="2" t="s">
+      <c r="C69" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E69" s="3">
+        <v>800</v>
+      </c>
+      <c r="G69">
+        <v>400</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>27</v>
+      </c>
+      <c r="R69" t="s">
+        <v>29</v>
+      </c>
+      <c r="S69" t="s">
+        <v>30</v>
+      </c>
+      <c r="T69" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG69" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="T63" s="2" t="s">
+    </row>
+    <row r="70" spans="1:33" ht="19">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="AC63" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="64" spans="2:29">
-      <c r="B64" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E70" s="8">
+        <v>1300</v>
+      </c>
+      <c r="G70" s="7">
+        <v>650</v>
+      </c>
+      <c r="O70">
+        <v>1</v>
+      </c>
+      <c r="P70" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>27</v>
+      </c>
+      <c r="R70" t="s">
+        <v>29</v>
+      </c>
+      <c r="S70" t="s">
+        <v>30</v>
+      </c>
+      <c r="T70" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG70" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C64" s="2" t="s">
+    </row>
+    <row r="71" spans="1:33" ht="19">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="8">
+        <v>1900</v>
+      </c>
+      <c r="G71" s="7">
+        <v>950</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>27</v>
+      </c>
+      <c r="R71" t="s">
+        <v>29</v>
+      </c>
+      <c r="S71" t="s">
+        <v>30</v>
+      </c>
+      <c r="T71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AG71" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="72" spans="1:33">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="T64" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G72">
+        <v>500</v>
+      </c>
+      <c r="O72">
+        <v>24</v>
+      </c>
+      <c r="R72" t="s">
+        <v>29</v>
+      </c>
+      <c r="S72" t="s">
+        <v>30</v>
+      </c>
+      <c r="T72" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG72" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="AC64" s="2" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="65" spans="2:29">
-      <c r="B65" s="2" t="s">
+    </row>
+    <row r="73" spans="1:33">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="E73" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G73">
+        <v>900</v>
+      </c>
+      <c r="O73">
+        <v>48</v>
+      </c>
+      <c r="R73" t="s">
+        <v>29</v>
+      </c>
+      <c r="S73" t="s">
+        <v>30</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG73" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="74" spans="1:33">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="T65" s="2" t="s">
+      <c r="C74" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G74">
+        <v>750</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>27</v>
+      </c>
+      <c r="R74" t="s">
+        <v>29</v>
+      </c>
+      <c r="S74" t="s">
+        <v>30</v>
+      </c>
+      <c r="T74" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AG74" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="AC65" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="2:29">
-      <c r="B66" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C66" s="2" t="s">
+    </row>
+    <row r="75" spans="1:33">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="T66" s="2" t="s">
+      <c r="C75" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T75" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG75" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="AC66" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="67" spans="2:29">
-      <c r="B67" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C67" s="2" t="s">
+    </row>
+    <row r="76" spans="1:33">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="T67" s="2" t="s">
+      <c r="C76" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="3">
+        <v>800</v>
+      </c>
+      <c r="T76" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AG76" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="AC67" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="68" spans="2:29">
-      <c r="B68" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C68" s="2" t="s">
+    </row>
+    <row r="77" spans="1:33">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="T68" s="2" t="s">
+      <c r="C77" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T77" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AG77" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="AC68" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="69" spans="2:29">
-      <c r="B69" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C69" s="2" t="s">
+    </row>
+    <row r="78" spans="1:33">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="T69" s="2" t="s">
+      <c r="C78" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E78" s="3">
+        <v>600</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AG78" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="AC69" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="70" spans="2:29">
-      <c r="B70" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="T70" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="AC70" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="71" spans="2:29">
-      <c r="B71" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="T71" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="AC71" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="72" spans="2:29">
-      <c r="B72" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T72" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AC72" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="73" spans="2:29">
-      <c r="B73" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC73" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="101" spans="11:13">
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="11:13">
-      <c r="K102">
-        <v>2330</v>
-      </c>
-    </row>
-    <row r="103" spans="11:13">
-      <c r="K103" s="1"/>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-    </row>
-    <row r="104" spans="11:13">
-      <c r="K104" s="1"/>
-      <c r="L104" s="1"/>
-      <c r="M104" s="1"/>
-    </row>
-    <row r="105" spans="11:13">
-      <c r="K105" s="1"/>
-      <c r="L105" s="1"/>
-      <c r="M105" s="1"/>
     </row>
     <row r="106" spans="11:13">
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
       <c r="M106" s="1"/>
     </row>
-    <row r="107" spans="11:13">
-      <c r="K107" s="1"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1"/>
-    </row>
     <row r="108" spans="11:13">
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -3876,6 +4984,31 @@
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
       <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="11:13">
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="11:13">
+      <c r="K158" s="1"/>
+      <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="11:13">
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="11:13">
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="11:13">
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/src/excel-data/kyushu.xlsx
+++ b/src/excel-data/kyushu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/Cao Yuxuan/テストweb/findmyrailpass.net/src/excel-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2B836E-23F4-8640-955C-7D71B0B49323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E02A711-7EBD-F543-B7B2-44E8D9887BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="19420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="301">
   <si>
     <t>sortOrder</t>
   </si>
@@ -119,9 +119,6 @@
     <t/>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>全年可用</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>九州全岛的5日周游券，覆盖熊本、鹿儿岛、博多，九州最全面的周游券。</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>/images/coverage/jr-kyushu-rail-pass-all-kyushu-5day.png</t>
   </si>
   <si>
@@ -174,9 +168,6 @@
   </si>
   <si>
     <t>九州全岛的7日周游券，覆盖熊本、鹿儿岛、博多，九州最全面的周游券。</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
   <si>
     <t>/images/coverage/jr-kyushu-rail-pass-all-kyushu-7day.png</t>
@@ -242,9 +233,6 @@
     <t>旅名人の九州満喫きっぷ</t>
   </si>
   <si>
-    <t>九州畅游旅名人通票</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Tabibito-Kyushu-Manzoku.png</t>
   </si>
   <si>
@@ -254,9 +242,6 @@
     <t>ぶらり大村線きっぷ</t>
   </si>
   <si>
-    <t>大村线悠闲通票</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Burari-Omura-Line-Kippu.png</t>
   </si>
   <si>
@@ -266,9 +251,6 @@
     <t>ゆふいん1dayレール＆バスチケット</t>
   </si>
   <si>
-    <t>由布院一日铁路&amp;巴士票</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Yufuin-1Day-Rail-Bus.png</t>
   </si>
   <si>
@@ -278,9 +260,6 @@
     <t>ぐるっと九州きっぷ</t>
   </si>
   <si>
-    <t>九州巡游通票</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Gurutto-Kyushu-Kippu.png</t>
   </si>
   <si>
@@ -290,9 +269,6 @@
     <t>JR＆宮交バス 日南1デーフリーパス</t>
   </si>
   <si>
-    <t>JR &amp; 宫交巴士日南一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Miyako-Bus-Nichinan-1Day-Free-Pass.png</t>
   </si>
   <si>
@@ -359,48 +335,24 @@
     <t>JRKyushu-Hello-Free-Time-Net-Pass-Kyushu</t>
   </si>
   <si>
-    <t>ハロー！自由時間ネットパス(全九州版)</t>
-  </si>
-  <si>
-    <t>Hello!自由时间网络通票(全九州版)</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Hello-Free-Time-Net-Pass-Kyushu.png</t>
   </si>
   <si>
     <t>JRKyushu-Hello-Free-Time-Net-Pass-North-Kyushu</t>
   </si>
   <si>
-    <t>ハロー！自由時間ネットパス(北部九州版)</t>
-  </si>
-  <si>
-    <t>Hello!自由时间网络通票(北九州版)</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Hello-Free-Time-Net-Pass-North-Kyushu.png</t>
   </si>
   <si>
     <t>JRKyushu-Hello-Free-Time-Green-Net-Pass-Kyushu</t>
   </si>
   <si>
-    <t>ハロー！自由時間グリーンネットパス(全九州版)</t>
-  </si>
-  <si>
-    <t>Hello!自由时间绿网络通票(全九州版)</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Hello-Free-Time-Green-Net-Pass-Kyushu.png</t>
   </si>
   <si>
     <t>JRKyushu-Hello-Free-Time-Green-Net-Pass-North-Kyushu</t>
   </si>
   <si>
-    <t>ハロー！自由時間グリーンネットパス(北部九州版)</t>
-  </si>
-  <si>
-    <t>Hello!自由时间绿网络通票(北九州版)</t>
-  </si>
-  <si>
     <t>/images/coverage/JRKyushu-Hello-Free-Time-Green-Net-Pass-North-Kyushu.png</t>
   </si>
   <si>
@@ -455,9 +407,6 @@
     <t>FUKUOKA 1DAY PASS</t>
   </si>
   <si>
-    <t>福冈一日乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Nishitetsu-Fukuoka-1Day-Pass.png</t>
   </si>
   <si>
@@ -467,9 +416,6 @@
     <t>福岡(天神)⇔太宰府1日フリー乗車券</t>
   </si>
   <si>
-    <t>福冈(天神)⇔太宰府一日自由乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Nishitetsu-Tenjin-Dazaifu-1Day-Free.png</t>
   </si>
   <si>
@@ -479,9 +425,6 @@
     <t>１日乗車券</t>
   </si>
   <si>
-    <t>北九州高速铁道一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Kitakyushu-Express-Railway-1Day.png</t>
   </si>
   <si>
@@ -491,9 +434,6 @@
     <t>へい！ちくてつ１日フリーきっぷ</t>
   </si>
   <si>
-    <t>筑丰电铁一日自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Chikuhou-Dentetsu-Heichiku-OneDay-Kippu.png</t>
   </si>
   <si>
@@ -503,9 +443,6 @@
     <t>ちくてつ24時間フリーきっぷ</t>
   </si>
   <si>
-    <t>筑铁24小时自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Chikuhou-Dentetsu-24Hr-Free-Kippu.png</t>
   </si>
   <si>
@@ -524,9 +461,6 @@
     <t>ファミちかきっぷ</t>
   </si>
   <si>
-    <t>家族亲密通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Fukuoka-FamiChika-Kippu.png</t>
   </si>
   <si>
@@ -557,12 +491,6 @@
     <t>Amagi-Railway-1Day-Free-Kippu</t>
   </si>
   <si>
-    <t>甘鉄一日フリー乗車券</t>
-  </si>
-  <si>
-    <t>甘木铁路一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Amagi-Railway-1Day-Free-Kippu.png</t>
   </si>
   <si>
@@ -572,9 +500,6 @@
     <t>松浦鉄道１日乗車券</t>
   </si>
   <si>
-    <t>松浦铁路一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Matsuura-Railway-1Day-Pass.png</t>
   </si>
   <si>
@@ -584,9 +509,6 @@
     <t>西肥バス・させぼバス・松浦鉄道 1 日乗車券</t>
   </si>
   <si>
-    <t>西肥巴士·佐世保巴士·松浦铁路一日通券</t>
-  </si>
-  <si>
     <t>/images/coverage/Nishihei-Bus-Sasebo-Bus-Matsuura-Railway-1Day.png</t>
   </si>
   <si>
@@ -596,21 +518,12 @@
     <t>シルバー会員専用１日乗車券</t>
   </si>
   <si>
-    <t>银会员专用一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Matsuura-Railway-Silver-Members-1Day.png</t>
   </si>
   <si>
     <t>Nagasaki-Dentetsu-Densha-1Day-Ticket</t>
   </si>
   <si>
-    <t>電車一日乗車券</t>
-  </si>
-  <si>
-    <t>长崎电铁电车一日乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Nagasaki-Dentetsu-Densha-1Day-Ticket.png</t>
   </si>
   <si>
@@ -653,9 +566,6 @@
     <t>わくわく1dayパス</t>
   </si>
   <si>
-    <t>熊本欢乐一日通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kumamoto-Wakuwaku-1Day-Pass.png</t>
   </si>
   <si>
@@ -665,9 +575,6 @@
     <t>わくわく1dayパス24時間乗車券</t>
   </si>
   <si>
-    <t>熊本欢乐24小时通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Kumamoto-Wakuwaku-24Hr-Pass.png</t>
   </si>
   <si>
@@ -677,9 +584,6 @@
     <t>熊本市電1日乗車券</t>
   </si>
   <si>
-    <t>熊本市电一日券</t>
-  </si>
-  <si>
     <t>/images/coverage/Kumamoto-City-Tram-1Day.png</t>
   </si>
   <si>
@@ -701,9 +605,6 @@
     <t>１日フリーキップ</t>
   </si>
   <si>
-    <t>南阿苏铁路一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Minamiaso-Rail-Free-Kippu.png</t>
   </si>
   <si>
@@ -713,9 +614,6 @@
     <t>24時間フリー乗車券</t>
   </si>
   <si>
-    <t>南阿苏铁路24小时自由通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Minamiaso-Rail-24Hr-Free.png</t>
   </si>
   <si>
@@ -740,24 +638,12 @@
     <t>Kumagawa-Rail-1Day-Bus-Included</t>
   </si>
   <si>
-    <t>くま川鉄道一日乗車券(代行バス込み)</t>
-  </si>
-  <si>
-    <t>熊川铁路一日乘车券（含代行巴士）</t>
-  </si>
-  <si>
     <t>/images/coverage/Kumagawa-Rail-1Day-Bus-Included.png</t>
   </si>
   <si>
     <t>Kumagawa-Rail-1Day-Rail-Only</t>
   </si>
   <si>
-    <t>くま川鉄道一日乗車券(鉄道のみ)</t>
-  </si>
-  <si>
-    <t>熊川铁路一日乘车券（仅限铁路）</t>
-  </si>
-  <si>
     <t>/images/coverage/Kumagawa-Rail-1Day-Rail-Only.png</t>
   </si>
   <si>
@@ -767,9 +653,6 @@
     <t>おれんじ1日フリー切符</t>
   </si>
   <si>
-    <t>橘铁一日自由券</t>
-  </si>
-  <si>
     <t>/images/coverage/Orange-Rail-1Day-Free-Kippu.png</t>
   </si>
   <si>
@@ -785,12 +668,6 @@
     <t>Kagoshima-City-Tram-Bus-City-View-1Day</t>
   </si>
   <si>
-    <t>市電・市バス・シティビュー一日乗車券</t>
-  </si>
-  <si>
-    <t>鹿儿岛市电·巴士·市景一日乘车券</t>
-  </si>
-  <si>
     <t>/images/coverage/Kagoshima-City-Tram-Bus-City-View-1Day.png</t>
   </si>
   <si>
@@ -818,12 +695,6 @@
     <t>Okinawa-Monorail-1Day-Or-2Day</t>
   </si>
   <si>
-    <t>一日乗車券/二日乗車券</t>
-  </si>
-  <si>
-    <t>冲绳都市单轨1日/2日通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Okinawa-Monorail-1Day-Or-2Day.png</t>
   </si>
   <si>
@@ -833,9 +704,6 @@
     <t>バスモノパス</t>
   </si>
   <si>
-    <t>巴士单轨通票</t>
-  </si>
-  <si>
     <t>/images/coverage/Bus-Mono-Pass.png</t>
   </si>
   <si>
@@ -888,384 +756,6 @@
   </si>
   <si>
     <t>購入日より３ヶ月の任意の３日(回)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>鹿儿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>岛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>宫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>崎自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>鹿儿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>岛</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>宫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>崎自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>由布院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>府自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>由布院</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>·</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>府自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>西九州自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>西九州自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中九州自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>中九州自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>全九州自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>全九州自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>全九州自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>5</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1275,100 +765,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>島原</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>铁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>道自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>島原</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Noto Sans CJK JP"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>铁</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="MS Mincho"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>道自由通票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>土・日・祝日
 春・夏・冬休み期間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>北薩摩大通票1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>北薩摩大通票3</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1465,12 +863,180 @@
     <t>ticket_note</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>由布院1日铁路&amp;巴士票</t>
+  </si>
+  <si>
+    <t>福冈1日乘车券</t>
+  </si>
+  <si>
+    <t>北九州高速铁道1日券</t>
+  </si>
+  <si>
+    <t>甘鉄1日フリー乗車券</t>
+  </si>
+  <si>
+    <t>松浦铁路1日券</t>
+  </si>
+  <si>
+    <t>西肥巴士·佐世保巴士·松浦铁路1日通券</t>
+  </si>
+  <si>
+    <t>银会员专用1日券</t>
+  </si>
+  <si>
+    <t>长崎电铁电车1日乘车券</t>
+  </si>
+  <si>
+    <t>電車1日乗車券</t>
+  </si>
+  <si>
+    <t>熊本市电1日券</t>
+  </si>
+  <si>
+    <t>熊川铁路1日乘车券（含代行巴士）</t>
+  </si>
+  <si>
+    <t>くま川鉄道1日乗車券(代行バス込み)</t>
+  </si>
+  <si>
+    <t>熊川铁路1日乘车券（仅限铁路）</t>
+  </si>
+  <si>
+    <t>くま川鉄道1日乗車券(鉄道のみ)</t>
+  </si>
+  <si>
+    <t>鹿儿岛市电·巴士·市景1日乘车券</t>
+  </si>
+  <si>
+    <t>市電・市バス・シティビュー1日乗車券</t>
+  </si>
+  <si>
+    <t>1日乗車券/二日乗車券</t>
+  </si>
+  <si>
+    <t>九州畅游旅名人周游券</t>
+  </si>
+  <si>
+    <t>大村线悠闲周游券</t>
+  </si>
+  <si>
+    <t>九州巡游周游券</t>
+  </si>
+  <si>
+    <t>家族亲密周游券</t>
+  </si>
+  <si>
+    <t>熊本欢乐1日周游券</t>
+  </si>
+  <si>
+    <t>熊本欢乐24小时周游券</t>
+  </si>
+  <si>
+    <t>北薩摩大周游券1</t>
+  </si>
+  <si>
+    <t>北薩摩大周游券3</t>
+  </si>
+  <si>
+    <t>冲绳都市单轨1日/2日周游券</t>
+  </si>
+  <si>
+    <t>巴士单轨周游券</t>
+  </si>
+  <si>
+    <t>JR &amp; 宫交巴士日南1日周游券</t>
+  </si>
+  <si>
+    <t>Hello!时间网络周游券(全九州版)</t>
+  </si>
+  <si>
+    <t>ハロー！時間ネットパス(全九州版)</t>
+  </si>
+  <si>
+    <t>Hello!时间网络周游券(北九州版)</t>
+  </si>
+  <si>
+    <t>ハロー！時間ネットパス(北部九州版)</t>
+  </si>
+  <si>
+    <t>Hello!时间绿网络周游券(全九州版)</t>
+  </si>
+  <si>
+    <t>ハロー！時間グリーンネットパス(全九州版)</t>
+  </si>
+  <si>
+    <t>Hello!时间绿网络周游券(北九州版)</t>
+  </si>
+  <si>
+    <t>ハロー！時間グリーンネットパス(北部九州版)</t>
+  </si>
+  <si>
+    <t>鹿儿岛·宫崎周游券2</t>
+  </si>
+  <si>
+    <t>鹿儿岛·宫崎周游券3</t>
+  </si>
+  <si>
+    <t>由布院·别府周游券2</t>
+  </si>
+  <si>
+    <t>由布院·别府周游券3</t>
+  </si>
+  <si>
+    <t>西九州周游券2</t>
+  </si>
+  <si>
+    <t>西九州周游券3</t>
+  </si>
+  <si>
+    <t>中九州周游券2</t>
+  </si>
+  <si>
+    <t>中九州周游券3</t>
+  </si>
+  <si>
+    <t>全九州周游券3</t>
+  </si>
+  <si>
+    <t>全九州周游券4</t>
+  </si>
+  <si>
+    <t>全九州周游券5</t>
+  </si>
+  <si>
+    <t>福冈(天神)⇔太宰府1日乘车券</t>
+  </si>
+  <si>
+    <t>筑丰电铁1日周游券</t>
+  </si>
+  <si>
+    <t>筑铁24小时周游券</t>
+  </si>
+  <si>
+    <t>甘木铁路1日券</t>
+  </si>
+  <si>
+    <t>島原铁道周游券1</t>
+  </si>
+  <si>
+    <t>島原铁道周游券2</t>
+  </si>
+  <si>
+    <t>南阿苏铁路1日券</t>
+  </si>
+  <si>
+    <t>南阿苏铁路24小时周游券</t>
+  </si>
+  <si>
+    <t>橘铁1日券</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1521,13 +1087,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Hiragino Kaku Gothic ProN"/>
@@ -1564,8 +1123,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1908,16 +1467,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
     <col min="9" max="9" width="24.5" customWidth="1"/>
     <col min="10" max="10" width="22.83203125" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="13" width="16.5" customWidth="1"/>
+    <col min="20" max="20" width="53.5" customWidth="1"/>
     <col min="23" max="23" width="19.5" customWidth="1"/>
     <col min="24" max="24" width="22.83203125" customWidth="1"/>
   </cols>
@@ -1948,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -1957,10 +1519,10 @@
         <v>9</v>
       </c>
       <c r="L1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N1" t="s">
         <v>22</v>
@@ -2005,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="AB1" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -2040,10 +1602,10 @@
         <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
       </c>
       <c r="P2" t="s">
         <v>27</v>
@@ -2052,28 +1614,28 @@
         <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T2" t="s">
         <v>30</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>31</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>32</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>35</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>36</v>
       </c>
       <c r="Z2">
         <v>5</v>
@@ -2087,61 +1649,61 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" t="s">
+        <v>28</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" t="s">
-        <v>29</v>
-      </c>
-      <c r="S3" t="s">
-        <v>30</v>
-      </c>
-      <c r="T3" t="s">
-        <v>42</v>
-      </c>
       <c r="U3" t="s">
+        <v>31</v>
+      </c>
+      <c r="V3" t="s">
         <v>32</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>33</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>34</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>35</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>36</v>
       </c>
       <c r="Z3">
         <v>5</v>
@@ -2155,61 +1717,61 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" t="s">
+        <v>28</v>
+      </c>
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>49</v>
-      </c>
-      <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" t="s">
-        <v>30</v>
-      </c>
-      <c r="T4" t="s">
-        <v>48</v>
-      </c>
       <c r="U4" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" t="s">
         <v>32</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>33</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>34</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>35</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>36</v>
       </c>
       <c r="Z4">
         <v>5</v>
@@ -2223,61 +1785,61 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
+      </c>
+      <c r="R5" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" t="s">
+      <c r="U5" t="s">
+        <v>31</v>
+      </c>
+      <c r="V5" t="s">
         <v>51</v>
       </c>
-      <c r="D5" t="s">
+      <c r="W5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>28</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
-      </c>
-      <c r="R5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" t="s">
-        <v>30</v>
-      </c>
-      <c r="T5" t="s">
-        <v>53</v>
-      </c>
-      <c r="U5" t="s">
-        <v>32</v>
-      </c>
-      <c r="V5" t="s">
-        <v>54</v>
-      </c>
-      <c r="W5" t="s">
-        <v>34</v>
-      </c>
-      <c r="X5" t="s">
-        <v>55</v>
-      </c>
       <c r="Y5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z5">
         <v>4</v>
@@ -2291,61 +1853,61 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>28</v>
+      </c>
+      <c r="S6" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
+      <c r="U6" t="s">
+        <v>31</v>
+      </c>
+      <c r="V6" t="s">
+        <v>51</v>
+      </c>
+      <c r="W6" t="s">
+        <v>33</v>
+      </c>
+      <c r="X6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
-      <c r="O6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>27</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" t="s">
-        <v>30</v>
-      </c>
-      <c r="T6" t="s">
-        <v>60</v>
-      </c>
-      <c r="U6" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" t="s">
-        <v>61</v>
-      </c>
       <c r="Y6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -2354,18 +1916,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:33" ht="19">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>239</v>
       </c>
       <c r="E7" s="3">
         <v>12000</v>
@@ -2374,7 +1936,7 @@
         <v>12000</v>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -2386,16 +1948,16 @@
         <v>27</v>
       </c>
       <c r="R7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -2403,10 +1965,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="E8" s="3">
         <v>3700</v>
@@ -2424,27 +1986,27 @@
         <v>27</v>
       </c>
       <c r="R8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="19">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>245</v>
       </c>
       <c r="E9" s="3">
         <v>2670</v>
@@ -2462,16 +2024,16 @@
         <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -2479,10 +2041,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="E10" s="3">
         <v>15800</v>
@@ -2506,16 +2068,16 @@
         <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -2523,10 +2085,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>84</v>
+        <v>272</v>
       </c>
       <c r="E11" s="3">
         <v>2300</v>
@@ -2544,16 +2106,16 @@
         <v>27</v>
       </c>
       <c r="R11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -2561,10 +2123,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E12" s="3">
         <v>1600</v>
@@ -2582,16 +2144,16 @@
         <v>27</v>
       </c>
       <c r="R12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -2599,10 +2161,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E13" s="3">
         <v>1500</v>
@@ -2620,16 +2182,16 @@
         <v>27</v>
       </c>
       <c r="R13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -2637,10 +2199,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E14" s="3">
         <v>1900</v>
@@ -2658,16 +2220,16 @@
         <v>27</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -2675,10 +2237,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E15" s="3">
         <v>2000</v>
@@ -2687,10 +2249,10 @@
         <v>24</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2698,10 +2260,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E16" s="3">
         <v>3200</v>
@@ -2710,10 +2272,10 @@
         <v>24</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2721,10 +2283,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="E17" s="3">
         <v>22800</v>
@@ -2739,16 +2301,16 @@
         <v>27</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>107</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:33">
@@ -2756,10 +2318,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>112</v>
+        <v>275</v>
       </c>
       <c r="E18" s="3">
         <v>11300</v>
@@ -2774,16 +2336,16 @@
         <v>27</v>
       </c>
       <c r="R18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2791,10 +2353,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>116</v>
+        <v>277</v>
       </c>
       <c r="E19" s="3">
         <v>26000</v>
@@ -2809,16 +2371,16 @@
         <v>27</v>
       </c>
       <c r="R19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2826,10 +2388,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>279</v>
       </c>
       <c r="E20" s="3">
         <v>13500</v>
@@ -2844,16 +2406,16 @@
         <v>27</v>
       </c>
       <c r="R20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>119</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="19">
@@ -2861,10 +2423,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E21" s="3">
         <v>7100</v>
@@ -2882,10 +2444,10 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="T21" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="19">
@@ -2893,10 +2455,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E22" s="3">
         <v>8400</v>
@@ -2914,10 +2476,10 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="T22" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:33" ht="17">
@@ -2925,10 +2487,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E23" s="3">
         <v>9600</v>
@@ -2946,10 +2508,10 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="T23" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:33" ht="17">
@@ -2957,10 +2519,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E24" s="3">
         <v>10900</v>
@@ -2978,10 +2540,10 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="T24" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -2989,10 +2551,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E25" s="3">
         <v>11500</v>
@@ -3010,10 +2572,10 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="T25" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:33">
@@ -3021,10 +2583,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E26" s="3">
         <v>12600</v>
@@ -3042,10 +2604,10 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="T26" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3053,10 +2615,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E27" s="3">
         <v>12400</v>
@@ -3074,10 +2636,10 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="T27" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:33">
@@ -3085,10 +2647,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E28" s="3">
         <v>13800</v>
@@ -3106,10 +2668,10 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="T28" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:33">
@@ -3117,10 +2679,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E29" s="3">
         <v>36100</v>
@@ -3138,10 +2700,10 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="T29" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:33">
@@ -3149,10 +2711,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E30" s="3">
         <v>37400</v>
@@ -3170,10 +2732,10 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="T30" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:33">
@@ -3181,10 +2743,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E31" s="3">
         <v>38700</v>
@@ -3202,10 +2764,10 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="T31" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="1:33">
@@ -3213,10 +2775,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>139</v>
+        <v>246</v>
       </c>
       <c r="E32" s="3">
         <v>2800</v>
@@ -3237,16 +2799,16 @@
         <v>27</v>
       </c>
       <c r="R32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:33">
@@ -3254,10 +2816,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>143</v>
+        <v>292</v>
       </c>
       <c r="E33" s="3">
         <v>820</v>
@@ -3269,10 +2831,10 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="T33" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -3280,10 +2842,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="E34" s="3">
         <v>700</v>
@@ -3295,10 +2857,10 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="T34" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="35" spans="1:33">
@@ -3306,10 +2868,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>151</v>
+        <v>293</v>
       </c>
       <c r="E35" s="3">
         <v>1600</v>
@@ -3330,16 +2892,16 @@
         <v>27</v>
       </c>
       <c r="R35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T35" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
     </row>
     <row r="36" spans="1:33">
@@ -3347,10 +2909,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="E36" s="3">
         <v>920</v>
@@ -3368,16 +2930,16 @@
         <v>27</v>
       </c>
       <c r="R36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -3385,10 +2947,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="E37" s="3">
         <v>640</v>
@@ -3406,16 +2968,16 @@
         <v>27</v>
       </c>
       <c r="R37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T37" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:33">
@@ -3423,10 +2985,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="E38" s="3">
         <v>1000</v>
@@ -3441,16 +3003,16 @@
         <v>27</v>
       </c>
       <c r="R38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:33">
@@ -3458,10 +3020,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E39">
         <v>800</v>
@@ -3476,16 +3038,16 @@
         <v>27</v>
       </c>
       <c r="R39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T39" s="2" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="192">
@@ -3493,10 +3055,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E40" s="3">
         <v>100</v>
@@ -3505,16 +3067,16 @@
         <v>1</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="S40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="AG40" s="2" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:33">
@@ -3522,10 +3084,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>174</v>
+        <v>295</v>
       </c>
       <c r="E41">
         <v>860</v>
@@ -3543,16 +3105,16 @@
         <v>27</v>
       </c>
       <c r="R41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T41" s="2" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:33">
@@ -3560,10 +3122,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="E42" s="3">
         <v>2500</v>
@@ -3581,16 +3143,16 @@
         <v>27</v>
       </c>
       <c r="R42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:33">
@@ -3598,10 +3160,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>182</v>
+        <v>250</v>
       </c>
       <c r="E43" s="3">
         <v>4000</v>
@@ -3619,16 +3181,16 @@
         <v>27</v>
       </c>
       <c r="R43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T43" s="2" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:33">
@@ -3636,10 +3198,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="E44" s="3">
         <v>1500</v>
@@ -3654,16 +3216,16 @@
         <v>27</v>
       </c>
       <c r="R44" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="AG44" s="2" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="1:33">
@@ -3671,10 +3233,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="E45" s="3">
         <v>600</v>
@@ -3692,16 +3254,16 @@
         <v>27</v>
       </c>
       <c r="R45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S45" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T45" s="2" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="AG45" s="2" t="s">
-        <v>189</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:33">
@@ -3709,10 +3271,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="E46" s="3">
         <v>700</v>
@@ -3724,16 +3286,16 @@
         <v>24</v>
       </c>
       <c r="R46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
       <c r="AG46" s="2" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="47" spans="1:33" ht="19">
@@ -3741,7 +3303,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>296</v>
@@ -3760,16 +3322,16 @@
         <v>27</v>
       </c>
       <c r="R47" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="48" spans="1:33" ht="19">
@@ -3777,7 +3339,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>297</v>
@@ -3796,16 +3358,16 @@
         <v>27</v>
       </c>
       <c r="R48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:33" ht="48">
@@ -3813,10 +3375,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="K49" s="3">
         <v>1500</v>
@@ -3825,13 +3387,13 @@
         <v>1</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="AG49" s="2" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="50" spans="1:33">
@@ -3839,10 +3401,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="K50">
         <v>800</v>
@@ -3857,16 +3419,16 @@
         <v>27</v>
       </c>
       <c r="R50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S50" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="AG50" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:33">
@@ -3874,10 +3436,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="K51">
         <v>1000</v>
@@ -3892,16 +3454,16 @@
         <v>27</v>
       </c>
       <c r="R51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S51" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T51" s="2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:33">
@@ -3909,10 +3471,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
       <c r="K52">
         <v>2200</v>
@@ -3927,16 +3489,16 @@
         <v>27</v>
       </c>
       <c r="R52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="AG52" s="2" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:33">
@@ -3944,10 +3506,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="K53">
         <v>800</v>
@@ -3956,16 +3518,16 @@
         <v>24</v>
       </c>
       <c r="R53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T53" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:33">
@@ -3973,10 +3535,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="K54">
         <v>1000</v>
@@ -3985,16 +3547,16 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:33">
@@ -4002,10 +3564,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="K55">
         <v>2200</v>
@@ -4014,16 +3576,16 @@
         <v>24</v>
       </c>
       <c r="R55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S55" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T55" s="2" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="AG55" s="2" t="s">
-        <v>208</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:33">
@@ -4031,10 +3593,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="E56">
         <v>700</v>
@@ -4049,10 +3611,10 @@
         <v>250</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:33">
@@ -4060,10 +3622,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="E57">
         <v>600</v>
@@ -4081,16 +3643,16 @@
         <v>27</v>
       </c>
       <c r="R57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S57" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T57" s="2" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="AG57" s="2" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:33">
@@ -4098,19 +3660,19 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>221</v>
+        <v>298</v>
       </c>
       <c r="E58" s="3">
         <v>1200</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:33">
@@ -4118,10 +3680,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>225</v>
+        <v>299</v>
       </c>
       <c r="E59" s="3">
         <v>1200</v>
@@ -4136,16 +3698,16 @@
         <v>27</v>
       </c>
       <c r="R59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T59" s="2" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="AG59" s="2" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:33">
@@ -4153,10 +3715,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E60" s="3">
         <v>2000</v>
@@ -4165,16 +3727,16 @@
         <v>24</v>
       </c>
       <c r="R60" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S60" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="AG60" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="61" spans="1:33">
@@ -4182,10 +3744,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E61" s="3">
         <v>3200</v>
@@ -4194,16 +3756,16 @@
         <v>24</v>
       </c>
       <c r="R61" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T61" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:33">
@@ -4211,10 +3773,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="E62" s="3">
         <v>2000</v>
@@ -4232,16 +3794,16 @@
         <v>27</v>
       </c>
       <c r="R62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="AG62" s="2" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:33">
@@ -4249,10 +3811,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="E63" s="3">
         <v>1200</v>
@@ -4261,10 +3823,10 @@
         <v>600</v>
       </c>
       <c r="T63" s="2" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="AG63" s="2" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="64" spans="1:33">
@@ -4272,10 +3834,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>237</v>
+        <v>201</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="E64" s="3">
         <v>900</v>
@@ -4284,10 +3846,10 @@
         <v>450</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="AG64" s="2" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:33">
@@ -4295,10 +3857,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="E65" s="3">
         <v>3000</v>
@@ -4319,16 +3881,16 @@
         <v>27</v>
       </c>
       <c r="R65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S65" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T65" s="2" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>242</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:33">
@@ -4336,10 +3898,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="E66" s="3">
         <v>3000</v>
@@ -4354,16 +3916,16 @@
         <v>27</v>
       </c>
       <c r="R66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S66" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="AG66" s="2" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="67" spans="1:33">
@@ -4371,10 +3933,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="E67" s="3">
         <v>7000</v>
@@ -4389,16 +3951,16 @@
         <v>27</v>
       </c>
       <c r="R67" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T67" s="2" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:33">
@@ -4406,10 +3968,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="E68" s="3">
         <v>600</v>
@@ -4427,16 +3989,16 @@
         <v>27</v>
       </c>
       <c r="R68" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="AG68" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
     </row>
     <row r="69" spans="1:33">
@@ -4444,10 +4006,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="E69" s="3">
         <v>800</v>
@@ -4465,16 +4027,16 @@
         <v>27</v>
       </c>
       <c r="R69" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="AG69" s="2" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
     </row>
     <row r="70" spans="1:33" ht="19">
@@ -4482,10 +4044,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>301</v>
+        <v>242</v>
       </c>
       <c r="E70" s="8">
         <v>1300</v>
@@ -4503,16 +4065,16 @@
         <v>27</v>
       </c>
       <c r="R70" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AG70" s="2" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:33" ht="19">
@@ -4520,10 +4082,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="E71" s="8">
         <v>1900</v>
@@ -4541,16 +4103,16 @@
         <v>27</v>
       </c>
       <c r="R71" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T71" s="2" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="AG71" s="2" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
     </row>
     <row r="72" spans="1:33">
@@ -4558,10 +4120,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E72" s="3">
         <v>1000</v>
@@ -4573,16 +4135,16 @@
         <v>24</v>
       </c>
       <c r="R72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="AG72" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:33">
@@ -4590,10 +4152,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E73" s="3">
         <v>1800</v>
@@ -4605,16 +4167,16 @@
         <v>48</v>
       </c>
       <c r="R73" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T73" s="2" t="s">
-        <v>262</v>
+        <v>219</v>
       </c>
       <c r="AG73" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:33">
@@ -4622,10 +4184,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="E74" s="3">
         <v>1500</v>
@@ -4643,16 +4205,16 @@
         <v>27</v>
       </c>
       <c r="R74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="AG74" s="2" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:33">
@@ -4660,19 +4222,19 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>269</v>
+        <v>225</v>
       </c>
       <c r="E75" s="3">
         <v>1000</v>
       </c>
       <c r="T75" s="2" t="s">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="AG75" s="2" t="s">
-        <v>268</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:33">
@@ -4680,19 +4242,19 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="E76" s="3">
         <v>800</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
     </row>
     <row r="77" spans="1:33">
@@ -4700,19 +4262,19 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="E77" s="3">
         <v>1800</v>
       </c>
       <c r="T77" s="2" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="AG77" s="2" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:33">
@@ -4720,19 +4282,19 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>279</v>
+        <v>235</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>281</v>
+        <v>237</v>
       </c>
       <c r="E78" s="3">
         <v>600</v>
       </c>
       <c r="T78" s="2" t="s">
-        <v>282</v>
+        <v>238</v>
       </c>
       <c r="AG78" s="2" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
     </row>
     <row r="106" spans="11:13">
@@ -5014,7 +4576,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="O1:AA6 A1:E6 F1:G6 H1:H6" numberStoredAsText="1"/>
+    <ignoredError sqref="O1:AA1 A1:E6 F1:G6 H1:H6 P5:AA5 P2:AA2 P3:AA3 P4:AA4 P6:AA6" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>